--- a/docs/Pinout.xlsx
+++ b/docs/Pinout.xlsx
@@ -418,7 +418,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,7 +481,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -546,7 +553,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -747,86 +754,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -839,7 +766,7 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1036,53 +963,20 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="9" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="9" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -9153,7 +9047,7 @@
   <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:N44"/>
+      <selection activeCell="B3" sqref="B3:N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9175,74 +9069,74 @@
     <col min="16" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20"/>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
       <c r="O1" s="20"/>
     </row>
-    <row r="2" spans="1:15" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="L2" s="9"/>
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
     </row>
-    <row r="3" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="78" t="s">
+    <row r="3" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="66"/>
+      <c r="B3" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="79"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="66"/>
     </row>
     <row r="4" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
+      <c r="A4" s="20"/>
       <c r="L4" s="9"/>
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
-      <c r="O4" s="68"/>
+      <c r="O4" s="20"/>
     </row>
     <row r="5" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="20"/>
       <c r="L5" s="9"/>
       <c r="M5" s="20"/>
       <c r="N5" s="20"/>
-      <c r="O5" s="68"/>
+      <c r="O5" s="20"/>
     </row>
     <row r="6" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="67"/>
+      <c r="A6" s="20"/>
       <c r="L6" s="9"/>
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
-      <c r="O6" s="68"/>
+      <c r="O6" s="20"/>
     </row>
     <row r="7" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="67"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="62" t="s">
         <v>39</v>
       </c>
@@ -9268,10 +9162,10 @@
       <c r="L7" s="20"/>
       <c r="M7" s="20"/>
       <c r="N7" s="20"/>
-      <c r="O7" s="68"/>
+      <c r="O7" s="20"/>
     </row>
     <row r="8" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="67"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="37"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21" t="s">
@@ -9293,10 +9187,10 @@
       <c r="L8" s="20"/>
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
-      <c r="O8" s="69"/>
+      <c r="O8" s="8"/>
     </row>
     <row r="9" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="67"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="39"/>
       <c r="C9" s="15" t="s">
         <v>32</v>
@@ -9320,10 +9214,10 @@
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
       <c r="N9" s="20"/>
-      <c r="O9" s="69"/>
+      <c r="O9" s="8"/>
     </row>
     <row r="10" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="67"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="39"/>
       <c r="C10" s="15" t="s">
         <v>33</v>
@@ -9351,10 +9245,10 @@
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
-      <c r="O10" s="69"/>
+      <c r="O10" s="8"/>
     </row>
     <row r="11" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="67"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="39"/>
       <c r="C11" s="15" t="s">
         <v>34</v>
@@ -9380,10 +9274,10 @@
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
       <c r="N11" s="20"/>
-      <c r="O11" s="69"/>
+      <c r="O11" s="8"/>
     </row>
     <row r="12" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="42" t="s">
         <v>4</v>
       </c>
@@ -9411,10 +9305,10 @@
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
       <c r="N12" s="20"/>
-      <c r="O12" s="69"/>
+      <c r="O12" s="8"/>
     </row>
     <row r="13" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="67"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="39"/>
       <c r="C13" s="15" t="s">
         <v>35</v>
@@ -9440,10 +9334,10 @@
       <c r="L13" s="58"/>
       <c r="M13" s="20"/>
       <c r="N13" s="20"/>
-      <c r="O13" s="69"/>
+      <c r="O13" s="8"/>
     </row>
     <row r="14" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="67"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="39"/>
       <c r="C14" s="15" t="s">
         <v>36</v>
@@ -9471,10 +9365,10 @@
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
       <c r="N14" s="20"/>
-      <c r="O14" s="69"/>
+      <c r="O14" s="8"/>
     </row>
     <row r="15" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="44" t="s">
         <v>106</v>
       </c>
@@ -9504,10 +9398,10 @@
       <c r="L15" s="58"/>
       <c r="M15" s="20"/>
       <c r="N15" s="20"/>
-      <c r="O15" s="69"/>
+      <c r="O15" s="8"/>
     </row>
     <row r="16" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="67"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="37"/>
       <c r="C16" s="21"/>
       <c r="D16" s="21" t="s">
@@ -9535,10 +9429,10 @@
       <c r="L16" s="20"/>
       <c r="M16" s="20"/>
       <c r="N16" s="20"/>
-      <c r="O16" s="69"/>
+      <c r="O16" s="8"/>
     </row>
     <row r="17" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="46" t="s">
         <v>108</v>
       </c>
@@ -9570,10 +9464,10 @@
       <c r="L17" s="20"/>
       <c r="M17" s="20"/>
       <c r="N17" s="20"/>
-      <c r="O17" s="69"/>
+      <c r="O17" s="8"/>
     </row>
     <row r="18" spans="1:15" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="67"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="46" t="s">
         <v>110</v>
       </c>
@@ -9605,10 +9499,10 @@
       <c r="L18" s="20"/>
       <c r="M18" s="20"/>
       <c r="N18" s="20"/>
-      <c r="O18" s="70"/>
+      <c r="O18" s="58"/>
     </row>
     <row r="19" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="46" t="s">
         <v>112</v>
       </c>
@@ -9642,10 +9536,10 @@
       <c r="N19" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="O19" s="68"/>
+      <c r="O19" s="20"/>
     </row>
     <row r="20" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="67"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="42" t="s">
         <v>4</v>
       </c>
@@ -9677,10 +9571,10 @@
       <c r="N20" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="O20" s="68"/>
+      <c r="O20" s="20"/>
     </row>
     <row r="21" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="39"/>
       <c r="C21" s="15" t="s">
         <v>38</v>
@@ -9710,10 +9604,10 @@
       <c r="N21" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="O21" s="68"/>
+      <c r="O21" s="20"/>
     </row>
     <row r="22" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="67"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="39"/>
       <c r="C22" s="15" t="s">
         <v>47</v>
@@ -9745,10 +9639,10 @@
       <c r="N22" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="68"/>
+      <c r="O22" s="20"/>
     </row>
     <row r="23" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="67"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="39"/>
       <c r="C23" s="15" t="s">
         <v>48</v>
@@ -9778,10 +9672,10 @@
       <c r="N23" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="O23" s="68"/>
+      <c r="O23" s="20"/>
     </row>
     <row r="24" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="67"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="39"/>
       <c r="C24" s="15" t="s">
         <v>49</v>
@@ -9813,10 +9707,10 @@
       <c r="N24" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="O24" s="68"/>
+      <c r="O24" s="20"/>
     </row>
     <row r="25" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="67"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="39"/>
       <c r="C25" s="15" t="s">
         <v>50</v>
@@ -9846,10 +9740,10 @@
       <c r="N25" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="O25" s="68"/>
+      <c r="O25" s="20"/>
     </row>
     <row r="26" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="67"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="39"/>
       <c r="C26" s="15" t="s">
         <v>51</v>
@@ -9879,10 +9773,10 @@
       <c r="N26" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="O26" s="68"/>
+      <c r="O26" s="20"/>
     </row>
     <row r="27" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="67"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="47" t="s">
         <v>4</v>
       </c>
@@ -9914,10 +9808,10 @@
       <c r="N27" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="O27" s="68"/>
+      <c r="O27" s="20"/>
     </row>
     <row r="28" spans="1:15" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="67"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="33"/>
       <c r="L28" s="9"/>
       <c r="M28" s="59">
@@ -9926,38 +9820,32 @@
       <c r="N28" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="O28" s="68"/>
+      <c r="O28" s="20"/>
     </row>
     <row r="29" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="67"/>
+      <c r="A29" s="20"/>
       <c r="L29" s="9"/>
       <c r="M29" s="20"/>
       <c r="N29" s="20"/>
-      <c r="O29" s="68"/>
+      <c r="O29" s="20"/>
     </row>
     <row r="30" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="67"/>
+      <c r="A30" s="20"/>
       <c r="L30" s="9"/>
       <c r="M30" s="20"/>
       <c r="N30" s="20"/>
-      <c r="O30" s="68"/>
+      <c r="O30" s="20"/>
     </row>
-    <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="80"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="75"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="76"/>
-      <c r="O31" s="81"/>
+    <row r="31" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="67"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="68"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="8"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
     </row>
     <row r="32" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
